--- a/docs/StructureDefinition-Organization-twltc.xlsx
+++ b/docs/StructureDefinition-Organization-twltc.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T23:20:15+08:00</t>
+    <t>2024-10-22T01:35:37+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -407,13 +407,13 @@
 </t>
   </si>
   <si>
-    <t>內嵌的（contained）、行內的Resources</t>
-  </si>
-  <si>
-    <t>這些resource內嵌（contains）的resource不會另外存於任何FHIR伺服器，意即它們無法在任何FHIR伺服器中被找到，也無法有自己獨立的資料異動／交易（transaction）範圍。</t>
-  </si>
-  <si>
-    <t>當內容可以從任何FHIR伺服器找到時，不應該以內嵌（contained）resource的方式呈現，因為一旦失去識別，再次恢復它是非常困難的（並且取決於情境）。內嵌（contained）的resource可在它們的meta資料項目中表述profiles和tag，但不應該有安全標號（security labels）。</t>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -423,19 +423,23 @@
   </si>
   <si>
     <t>Organization.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>擴充的資料項目</t>
-  </si>
-  <si>
-    <t>可用於表示不屬於此resource基本定義的額外資訊。為了擴充的使用安全和可管理，對擴充的定義和使用有一套嚴格的管理。儘管任何實作者都可以定義一個擴充，但作為擴充定義的一部分，**必須（SHALL）** 滿足一系列要求。</t>
-  </si>
-  <si>
-    <t>任何應用程式、專案或標準使用擴充時，都不應該帶有任何負面的聯想。使用擴充是允許FHIR規範為每個人保留一個核心的簡易性。</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -448,14 +452,14 @@
     <t>Organization.modifierExtension</t>
   </si>
   <si>
-    <t>此擴充的資料項目可能會完全修正或改變其他資料項目的意涵，需特別留意。</t>
-  </si>
-  <si>
-    <t>可以用來表示不屬於此resource的基本定義的額外資訊，並修改包含它所內嵌（contained）的資料項目的理解和/或對包含資料項目之後續使用的理解。通常修飾用的資料項目提供否定或限定的資訊。為了使擴充的使用安全和可管理，對擴充的定義和使用有一套嚴格的管理。雖然任何實作者都可以定義一個擴充，但在定義擴充時 **必須（SHALL）** 滿足一組要求。處理resource的應用程式需要檢查修飾用的擴充資料項目。  
-修飾用的擴充資料項目 **必須沒有（SHALL NOT）** 改變resource或DomainResource上任何資料項目的含義（包括不能改變modifierExtension本身的含義）。</t>
-  </si>
-  <si>
-    <t>修飾用的資料項目擴充允許將不能安全地忽略的擴充，與絕大多數可以安全地忽略的擴充明確區分開來。這樣做有助於促進可互操作性，因為無需禁止實作者使用擴充，想要瞭解更多資訊，請參見[修飾用的資料項目擴充之定義]（http://hl7.org/fhir/R4/extensibility.html#modifierExtension）。</t>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -515,6 +519,9 @@
     <t>Organization.identifier.extension</t>
   </si>
   <si>
+    <t>擴充的資料項目</t>
+  </si>
+  <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
@@ -602,7 +609,7 @@
     <t>Organization.identifier.system</t>
   </si>
   <si>
-    <t>機構識別碼（identifier）的命名空間（namespace），可至[twTerminology](https://twcore.mohw.gov.tw/ts/namingsystem.jsp?status=active&amp;amp;type=0)申請或查詢命名系統。</t>
+    <t>機構識別碼（identifier）的命名空間（namespace），可至[twTerminology](https://fhir.mohw.gov.tw/ts/namingsystem.jsp?status=active&amp;amp;type=0)申請或查詢命名系統。</t>
   </si>
   <si>
     <t>建立值的命名空間－即一個描述一組值的唯一URL</t>
@@ -965,7 +972,7 @@
     <t>Organization.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Address-twcore}
+    <t xml:space="preserve">Address {https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Address-tw}
 </t>
   </si>
   <si>
@@ -1000,17 +1007,7 @@
     <t>Organization.address.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Organization.address.extension:room</t>
@@ -1271,7 +1268,7 @@
 鄉鎮市區</t>
   </si>
   <si>
-    <t>鄉/鎮/市/區</t>
+    <t>鄉/鎮/市/區，定義上與國際的等級一致。原文為：Name of city, town etc.。</t>
   </si>
   <si>
     <t>市、鄉、鎮、村或其他社區或配送中心的名稱。</t>
@@ -1299,7 +1296,7 @@
 市</t>
   </si>
   <si>
-    <t>縣/市</t>
+    <t>縣/市，定義上與國際的等級一致。原文為：District name (aka county)。</t>
   </si>
   <si>
     <t>行政區域（縣）的名稱</t>
@@ -1327,7 +1324,7 @@
 Territory</t>
   </si>
   <si>
-    <t>國家的子單位（縮寫也可以）</t>
+    <t>國家的子單位（縮寫也可以）。原文為：Sub-unit of country (abbreviations ok)。</t>
   </si>
   <si>
     <t>一個國家的子單位，在聯邦組織的國家中擁有有限的主權。如果代碼被普遍使用，可使用代碼（例如：美國2個字母的州代碼）。</t>
@@ -1843,6 +1840,9 @@
   </si>
   <si>
     <t>Organization.contact.modifierExtension</t>
+  </si>
+  <si>
+    <t>此擴充的資料項目可能會完全修正或改變其他資料項目的意涵，需特別留意。</t>
   </si>
   <si>
     <t>可以用來表示不屬於資料項目的基本定義的附加資訊，並且修改對它所內嵌（contained）的資料項目的理解和／或對包含資料項目之後續使用的理解。通常，修飾用的資料項目提供否定或限定。為了使擴充的使用安全和可管理，對擴充的定義和使用有一套嚴格的管理。儘管任何實作者都可以定義一個擴充，但作為擴充定義的一部分，有一組要求 **必須（SHALL）** 滿足。處理resource的應用程式被要求檢查修飾用的擴充資料項目。
@@ -2278,7 +2278,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="168.2265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -3230,7 +3230,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3249,16 +3249,16 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3308,7 +3308,7 @@
         <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -3320,13 +3320,13 @@
         <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>20</v>
@@ -3337,14 +3337,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3363,19 +3363,19 @@
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>20</v>
@@ -3424,7 +3424,7 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -3436,13 +3436,13 @@
         <v>20</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>20</v>
@@ -3453,10 +3453,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3464,7 +3464,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>78</v>
@@ -3479,17 +3479,17 @@
         <v>87</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>20</v>
@@ -3538,7 +3538,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -3547,30 +3547,30 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3593,13 +3593,13 @@
         <v>20</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3650,7 +3650,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -3668,7 +3668,7 @@
         <v>20</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>20</v>
@@ -3679,10 +3679,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3705,13 +3705,13 @@
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3750,19 +3750,19 @@
         <v>20</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3774,7 +3774,7 @@
         <v>20</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>20</v>
@@ -3791,10 +3791,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3820,16 +3820,16 @@
         <v>106</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>20</v>
@@ -3854,13 +3854,13 @@
         <v>20</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>20</v>
@@ -3878,7 +3878,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3896,7 +3896,7 @@
         <v>130</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>20</v>
@@ -3907,10 +3907,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3933,19 +3933,19 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>20</v>
@@ -3970,13 +3970,13 @@
         <v>20</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>20</v>
@@ -3994,7 +3994,7 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -4003,16 +4003,16 @@
         <v>86</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>20</v>
@@ -4023,10 +4023,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4052,16 +4052,16 @@
         <v>100</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>20</v>
@@ -4074,7 +4074,7 @@
         <v>20</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>20</v>
@@ -4110,7 +4110,7 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -4125,13 +4125,13 @@
         <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>20</v>
@@ -4139,10 +4139,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4165,16 +4165,16 @@
         <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4188,7 +4188,7 @@
         <v>20</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>20</v>
@@ -4224,7 +4224,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -4239,13 +4239,13 @@
         <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>20</v>
@@ -4253,10 +4253,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4279,13 +4279,13 @@
         <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4336,7 +4336,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -4351,13 +4351,13 @@
         <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>20</v>
@@ -4365,10 +4365,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4391,16 +4391,16 @@
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4450,7 +4450,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -4465,13 +4465,13 @@
         <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>20</v>
@@ -4479,10 +4479,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4505,70 +4505,70 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="P20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q20" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="R20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="P20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q20" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="R20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -4583,24 +4583,24 @@
         <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4623,19 +4623,19 @@
         <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>20</v>
@@ -4660,13 +4660,13 @@
         <v>20</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>20</v>
@@ -4684,7 +4684,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -4693,16 +4693,16 @@
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>20</v>
@@ -4713,10 +4713,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4739,19 +4739,19 @@
         <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -4800,7 +4800,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4809,19 +4809,19 @@
         <v>86</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>20</v>
@@ -4829,10 +4829,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4855,19 +4855,19 @@
         <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>20</v>
@@ -4916,7 +4916,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4934,7 +4934,7 @@
         <v>20</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>20</v>
@@ -4945,10 +4945,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4971,19 +4971,19 @@
         <v>20</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -5032,7 +5032,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -5041,19 +5041,19 @@
         <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>20</v>
@@ -5061,10 +5061,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5087,13 +5087,13 @@
         <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5144,7 +5144,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -5162,7 +5162,7 @@
         <v>20</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>20</v>
@@ -5173,10 +5173,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5199,13 +5199,13 @@
         <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5244,19 +5244,19 @@
         <v>20</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -5268,7 +5268,7 @@
         <v>20</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>20</v>
@@ -5285,10 +5285,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5314,10 +5314,10 @@
         <v>106</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5344,13 +5344,13 @@
         <v>20</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>20</v>
@@ -5368,7 +5368,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -5377,19 +5377,19 @@
         <v>86</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>20</v>
@@ -5397,10 +5397,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5423,19 +5423,19 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>20</v>
@@ -5484,7 +5484,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -5499,13 +5499,13 @@
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>20</v>
@@ -5513,10 +5513,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5542,16 +5542,16 @@
         <v>106</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -5576,13 +5576,13 @@
         <v>20</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>20</v>
@@ -5600,7 +5600,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5615,13 +5615,13 @@
         <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>20</v>
@@ -5629,10 +5629,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5655,16 +5655,16 @@
         <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5714,7 +5714,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5729,10 +5729,10 @@
         <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>20</v>
@@ -5743,10 +5743,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5769,13 +5769,13 @@
         <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5826,7 +5826,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5844,10 +5844,10 @@
         <v>130</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>20</v>
@@ -5855,10 +5855,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5881,19 +5881,19 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -5942,7 +5942,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5951,19 +5951,19 @@
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>20</v>
@@ -5971,10 +5971,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5997,13 +5997,13 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -6054,7 +6054,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -6072,7 +6072,7 @@
         <v>20</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>20</v>
@@ -6083,14 +6083,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>316</v>
+        <v>132</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6109,16 +6109,16 @@
         <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>317</v>
+        <v>134</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>318</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>319</v>
+        <v>136</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6156,19 +6156,19 @@
         <v>20</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -6180,13 +6180,13 @@
         <v>20</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>20</v>
@@ -6197,13 +6197,13 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="C35" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>20</v>
@@ -6225,13 +6225,13 @@
         <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6282,7 +6282,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -6294,7 +6294,7 @@
         <v>20</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>20</v>
@@ -6311,13 +6311,13 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="C36" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>20</v>
@@ -6339,13 +6339,13 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6396,7 +6396,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -6408,7 +6408,7 @@
         <v>20</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>20</v>
@@ -6425,13 +6425,13 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="C37" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="D37" t="s" s="2">
         <v>20</v>
@@ -6453,13 +6453,13 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6510,7 +6510,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6522,7 +6522,7 @@
         <v>20</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>20</v>
@@ -6539,13 +6539,13 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="C38" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>20</v>
@@ -6567,13 +6567,13 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6624,7 +6624,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6636,7 +6636,7 @@
         <v>20</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>20</v>
@@ -6653,16 +6653,16 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="C39" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="B39" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="C39" t="s" s="2">
+      <c r="D39" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="D39" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6681,13 +6681,13 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6738,7 +6738,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6750,7 +6750,7 @@
         <v>20</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>20</v>
@@ -6767,13 +6767,13 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="C40" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>20</v>
@@ -6795,13 +6795,13 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6852,7 +6852,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6864,7 +6864,7 @@
         <v>20</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>20</v>
@@ -6881,13 +6881,13 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="C41" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>20</v>
@@ -6909,13 +6909,13 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6966,7 +6966,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6978,7 +6978,7 @@
         <v>20</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>20</v>
@@ -6995,16 +6995,16 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="C42" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="B42" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="C42" t="s" s="2">
+      <c r="D42" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="D42" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7023,13 +7023,13 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7080,7 +7080,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -7092,7 +7092,7 @@
         <v>20</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>20</v>
@@ -7109,10 +7109,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7138,16 +7138,16 @@
         <v>106</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="N43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>20</v>
@@ -7160,43 +7160,43 @@
         <v>20</v>
       </c>
       <c r="T43" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y43" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="U43" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="Y43" t="s" s="2">
+      <c r="Z43" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="Z43" t="s" s="2">
+      <c r="AA43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF43" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -7211,13 +7211,13 @@
         <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>20</v>
@@ -7225,10 +7225,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7254,13 +7254,13 @@
         <v>106</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7274,43 +7274,43 @@
         <v>20</v>
       </c>
       <c r="T44" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="U44" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="Y44" t="s" s="2">
+      <c r="Z44" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="Z44" t="s" s="2">
+      <c r="AA44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF44" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -7325,10 +7325,10 @@
         <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>20</v>
@@ -7339,10 +7339,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7365,19 +7365,19 @@
         <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="N45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>20</v>
@@ -7390,43 +7390,43 @@
         <v>20</v>
       </c>
       <c r="T45" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF45" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7441,10 +7441,10 @@
         <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>20</v>
@@ -7455,14 +7455,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7481,13 +7481,13 @@
         <v>87</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7502,43 +7502,43 @@
         <v>20</v>
       </c>
       <c r="T46" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF46" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7553,13 +7553,13 @@
         <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>20</v>
@@ -7567,14 +7567,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7593,13 +7593,13 @@
         <v>87</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7614,43 +7614,43 @@
         <v>20</v>
       </c>
       <c r="T47" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF47" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7665,13 +7665,13 @@
         <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>20</v>
@@ -7679,14 +7679,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7705,16 +7705,16 @@
         <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7728,43 +7728,43 @@
         <v>20</v>
       </c>
       <c r="T48" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF48" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7779,10 +7779,10 @@
         <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>20</v>
@@ -7793,14 +7793,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7819,13 +7819,13 @@
         <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7876,7 +7876,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7891,13 +7891,13 @@
         <v>98</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>20</v>
@@ -7905,14 +7905,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7931,13 +7931,13 @@
         <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7952,43 +7952,43 @@
         <v>20</v>
       </c>
       <c r="T50" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF50" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -8003,13 +8003,13 @@
         <v>98</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>20</v>
@@ -8017,10 +8017,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8043,13 +8043,13 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8100,7 +8100,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -8129,10 +8129,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8155,13 +8155,13 @@
         <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8200,17 +8200,17 @@
         <v>20</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AC52" s="2"/>
       <c r="AD52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -8222,7 +8222,7 @@
         <v>20</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>20</v>
@@ -8239,13 +8239,13 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="C53" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>20</v>
@@ -8267,13 +8267,13 @@
         <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="L53" t="s" s="2">
-        <v>441</v>
-      </c>
       <c r="M53" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8324,7 +8324,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -8333,10 +8333,10 @@
         <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>20</v>
@@ -8353,10 +8353,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="B54" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8379,13 +8379,13 @@
         <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8436,7 +8436,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8454,7 +8454,7 @@
         <v>20</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>20</v>
@@ -8465,10 +8465,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="B55" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8491,13 +8491,13 @@
         <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8536,19 +8536,19 @@
         <v>20</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -8560,7 +8560,7 @@
         <v>20</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>20</v>
@@ -8577,10 +8577,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B56" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8606,13 +8606,13 @@
         <v>100</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8620,49 +8620,49 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF56" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>86</v>
@@ -8691,10 +8691,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="B57" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8717,16 +8717,16 @@
         <v>20</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8776,7 +8776,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8785,16 +8785,16 @@
         <v>86</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>20</v>
@@ -8805,10 +8805,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B58" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8831,13 +8831,13 @@
         <v>20</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8888,7 +8888,7 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -8906,7 +8906,7 @@
         <v>20</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>20</v>
@@ -8917,10 +8917,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B59" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8943,16 +8943,16 @@
         <v>20</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8990,19 +8990,19 @@
         <v>20</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -9014,7 +9014,7 @@
         <v>20</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>20</v>
@@ -9031,10 +9031,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B60" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9057,19 +9057,19 @@
         <v>20</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="N60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>20</v>
@@ -9106,17 +9106,17 @@
         <v>20</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -9125,16 +9125,16 @@
         <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>20</v>
@@ -9145,13 +9145,13 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="C61" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>20</v>
@@ -9173,19 +9173,19 @@
         <v>20</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="N61" t="s" s="2">
+      <c r="O61" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>20</v>
@@ -9210,14 +9210,14 @@
         <v>20</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Y61" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="Z61" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="Z61" t="s" s="2">
-        <v>480</v>
-      </c>
       <c r="AA61" t="s" s="2">
         <v>20</v>
       </c>
@@ -9234,7 +9234,7 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -9243,16 +9243,16 @@
         <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>20</v>
@@ -9263,10 +9263,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B62" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9289,13 +9289,13 @@
         <v>20</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9346,7 +9346,7 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -9364,7 +9364,7 @@
         <v>20</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>20</v>
@@ -9375,10 +9375,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B63" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9401,16 +9401,16 @@
         <v>20</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9448,19 +9448,19 @@
         <v>20</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -9472,7 +9472,7 @@
         <v>20</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>20</v>
@@ -9489,10 +9489,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="B64" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9518,16 +9518,16 @@
         <v>100</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="N64" t="s" s="2">
+      <c r="O64" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>20</v>
@@ -9537,46 +9537,46 @@
         <v>20</v>
       </c>
       <c r="S64" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF64" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9591,10 +9591,10 @@
         <v>98</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>20</v>
@@ -9605,10 +9605,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B65" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9631,16 +9631,16 @@
         <v>87</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9690,7 +9690,7 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -9705,10 +9705,10 @@
         <v>98</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AL65" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>20</v>
@@ -9719,10 +9719,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="B66" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9748,14 +9748,14 @@
         <v>106</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>20</v>
@@ -9804,7 +9804,7 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -9819,10 +9819,10 @@
         <v>98</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>20</v>
@@ -9833,10 +9833,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="B67" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9859,17 +9859,17 @@
         <v>87</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>20</v>
@@ -9918,7 +9918,7 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -9933,10 +9933,10 @@
         <v>98</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>20</v>
@@ -9947,10 +9947,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="B68" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9973,19 +9973,19 @@
         <v>87</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="N68" t="s" s="2">
+      <c r="O68" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>20</v>
@@ -10034,7 +10034,7 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -10049,10 +10049,10 @@
         <v>98</v>
       </c>
       <c r="AK68" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AL68" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>527</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>20</v>
@@ -10063,13 +10063,13 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="C69" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>20</v>
@@ -10091,19 +10091,19 @@
         <v>20</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="N69" t="s" s="2">
+      <c r="O69" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>20</v>
@@ -10128,13 +10128,13 @@
         <v>20</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>20</v>
@@ -10152,7 +10152,7 @@
         <v>20</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
@@ -10161,16 +10161,16 @@
         <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK69" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AL69" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>20</v>
@@ -10181,10 +10181,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10207,13 +10207,13 @@
         <v>20</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10264,7 +10264,7 @@
         <v>20</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
@@ -10282,7 +10282,7 @@
         <v>20</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>20</v>
@@ -10293,10 +10293,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10319,16 +10319,16 @@
         <v>20</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10366,19 +10366,19 @@
         <v>20</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
@@ -10390,7 +10390,7 @@
         <v>20</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>20</v>
@@ -10407,10 +10407,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10436,16 +10436,16 @@
         <v>100</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="N72" t="s" s="2">
+      <c r="O72" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>20</v>
@@ -10455,7 +10455,7 @@
         <v>20</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>20</v>
@@ -10494,7 +10494,7 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
@@ -10509,10 +10509,10 @@
         <v>98</v>
       </c>
       <c r="AK72" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AL72" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>20</v>
@@ -10523,10 +10523,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10549,16 +10549,16 @@
         <v>87</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10608,7 +10608,7 @@
         <v>20</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
@@ -10623,10 +10623,10 @@
         <v>98</v>
       </c>
       <c r="AK73" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>20</v>
@@ -10637,10 +10637,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10666,14 +10666,14 @@
         <v>106</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>20</v>
@@ -10722,7 +10722,7 @@
         <v>20</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
@@ -10737,10 +10737,10 @@
         <v>98</v>
       </c>
       <c r="AK74" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AL74" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>20</v>
@@ -10751,10 +10751,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10777,17 +10777,17 @@
         <v>87</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>20</v>
@@ -10836,7 +10836,7 @@
         <v>20</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
@@ -10851,10 +10851,10 @@
         <v>98</v>
       </c>
       <c r="AK75" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AL75" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>20</v>
@@ -10865,10 +10865,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10891,19 +10891,19 @@
         <v>87</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="N76" t="s" s="2">
+      <c r="O76" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>20</v>
@@ -10952,7 +10952,7 @@
         <v>20</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
@@ -10967,10 +10967,10 @@
         <v>98</v>
       </c>
       <c r="AK76" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AL76" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>527</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>20</v>
@@ -10981,13 +10981,13 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="C77" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="C77" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="D77" t="s" s="2">
         <v>20</v>
@@ -11009,19 +11009,19 @@
         <v>20</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="N77" t="s" s="2">
+      <c r="O77" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>20</v>
@@ -11046,13 +11046,13 @@
         <v>20</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>20</v>
@@ -11070,7 +11070,7 @@
         <v>20</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
@@ -11079,16 +11079,16 @@
         <v>78</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK77" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AL77" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>20</v>
@@ -11099,10 +11099,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11125,13 +11125,13 @@
         <v>20</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11182,7 +11182,7 @@
         <v>20</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
@@ -11200,7 +11200,7 @@
         <v>20</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>20</v>
@@ -11211,10 +11211,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11237,16 +11237,16 @@
         <v>20</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11284,19 +11284,19 @@
         <v>20</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AC79" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AD79" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
@@ -11308,7 +11308,7 @@
         <v>20</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>20</v>
@@ -11325,10 +11325,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11354,16 +11354,16 @@
         <v>100</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="N80" t="s" s="2">
+      <c r="O80" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>20</v>
@@ -11373,7 +11373,7 @@
         <v>20</v>
       </c>
       <c r="S80" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>20</v>
@@ -11412,7 +11412,7 @@
         <v>20</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
@@ -11427,10 +11427,10 @@
         <v>98</v>
       </c>
       <c r="AK80" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AL80" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>20</v>
@@ -11441,10 +11441,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11467,16 +11467,16 @@
         <v>87</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11526,7 +11526,7 @@
         <v>20</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
@@ -11541,10 +11541,10 @@
         <v>98</v>
       </c>
       <c r="AK81" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AL81" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>20</v>
@@ -11555,10 +11555,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11584,14 +11584,14 @@
         <v>106</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>20</v>
@@ -11640,7 +11640,7 @@
         <v>20</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
@@ -11655,10 +11655,10 @@
         <v>98</v>
       </c>
       <c r="AK82" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AL82" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>20</v>
@@ -11669,10 +11669,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11695,17 +11695,17 @@
         <v>87</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>20</v>
@@ -11754,7 +11754,7 @@
         <v>20</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
@@ -11769,10 +11769,10 @@
         <v>98</v>
       </c>
       <c r="AK83" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AL83" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>20</v>
@@ -11783,10 +11783,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11809,19 +11809,19 @@
         <v>87</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="N84" t="s" s="2">
+      <c r="O84" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>20</v>
@@ -11870,7 +11870,7 @@
         <v>20</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
@@ -11885,10 +11885,10 @@
         <v>98</v>
       </c>
       <c r="AK84" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AL84" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>527</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>20</v>
@@ -11899,10 +11899,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="B85" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11925,19 +11925,19 @@
         <v>87</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="N85" t="s" s="2">
+      <c r="O85" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>555</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>20</v>
@@ -11986,7 +11986,7 @@
         <v>20</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
@@ -12001,10 +12001,10 @@
         <v>98</v>
       </c>
       <c r="AK85" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AL85" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>20</v>
@@ -12015,10 +12015,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12041,13 +12041,13 @@
         <v>20</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12071,34 +12071,34 @@
         <v>20</v>
       </c>
       <c r="W86" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF86" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>562</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>77</v>
@@ -12127,10 +12127,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12153,16 +12153,16 @@
         <v>87</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12212,7 +12212,7 @@
         <v>20</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
@@ -12227,13 +12227,13 @@
         <v>98</v>
       </c>
       <c r="AK87" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AL87" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="AL87" t="s" s="2">
+      <c r="AM87" t="s" s="2">
         <v>569</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>570</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>20</v>
@@ -12241,10 +12241,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12267,17 +12267,17 @@
         <v>87</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>20</v>
@@ -12290,43 +12290,43 @@
         <v>20</v>
       </c>
       <c r="T88" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF88" t="s" s="2">
         <v>574</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>575</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>77</v>
@@ -12341,13 +12341,13 @@
         <v>98</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>20</v>
@@ -12355,10 +12355,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12381,17 +12381,17 @@
         <v>87</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>20</v>
@@ -12440,7 +12440,7 @@
         <v>20</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>77</v>
@@ -12455,13 +12455,13 @@
         <v>98</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>20</v>
@@ -12469,10 +12469,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12495,19 +12495,19 @@
         <v>20</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="N90" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="M90" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="N90" t="s" s="2">
+      <c r="O90" t="s" s="2">
         <v>584</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>585</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>20</v>
@@ -12556,7 +12556,7 @@
         <v>20</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>77</v>
@@ -12574,7 +12574,7 @@
         <v>20</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>20</v>
@@ -12585,10 +12585,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12611,13 +12611,13 @@
         <v>20</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12668,7 +12668,7 @@
         <v>20</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>77</v>
@@ -12686,7 +12686,7 @@
         <v>20</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>20</v>
@@ -12697,10 +12697,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12723,16 +12723,16 @@
         <v>20</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -12782,7 +12782,7 @@
         <v>20</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>77</v>
@@ -12794,7 +12794,7 @@
         <v>20</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>20</v>
@@ -12811,10 +12811,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12837,16 +12837,16 @@
         <v>87</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>139</v>
+        <v>589</v>
       </c>
       <c r="M93" t="s" s="2">
         <v>590</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>591</v>
@@ -12910,7 +12910,7 @@
         <v>20</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>20</v>
@@ -12953,7 +12953,7 @@
         <v>20</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L94" t="s" s="2">
         <v>594</v>
@@ -12990,7 +12990,7 @@
         <v>20</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Y94" t="s" s="2">
         <v>598</v>
@@ -13023,16 +13023,16 @@
         <v>86</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>20</v>
@@ -13183,7 +13183,7 @@
         <v>20</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L96" t="s" s="2">
         <v>607</v>
@@ -13297,7 +13297,7 @@
         <v>20</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L97" t="s" s="2">
         <v>613</v>
@@ -13309,7 +13309,7 @@
         <v>615</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>20</v>
@@ -13367,19 +13367,19 @@
         <v>86</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>20</v>
@@ -13490,7 +13490,7 @@
         <v>20</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>20</v>

--- a/docs/StructureDefinition-Organization-twltc.xlsx
+++ b/docs/StructureDefinition-Organization-twltc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3576" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3576" uniqueCount="621">
   <si>
     <t>Property</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>TWLTC Organization</t>
+    <t>長期照顧－機構</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T01:35:37+08:00</t>
+    <t>2024-10-23T00:37:08+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>長期照顧機構資料，包含長照機構的名稱、地址、聯絡方式等資訊。</t>
+    <t>此 Profile 說明本 IG 如何進一步定義 FHIR 的 Organization Resource，以呈現機構的資料。這裡的機構包含但不限於醫院、診所、長照機構、社區服務單位等。</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -259,7 +259,7 @@
 </t>
   </si>
   <si>
-    <t>長期照顧服務機構的資訊</t>
+    <t>機構的資訊</t>
   </si>
   <si>
     <t>為實現某種形式的集體行動而形成的正式或非正式認可的一群人或機構的團體。包括公司、機構、企業、部門、社群團體、健康照護實務團體、付款人／保險公司等。</t>
@@ -749,6 +749,9 @@
   </si>
   <si>
     <t>Organization.type</t>
+  </si>
+  <si>
+    <t>機構類型</t>
   </si>
   <si>
     <t>機構的型別</t>
@@ -4608,7 +4611,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>86</v>
@@ -4629,13 +4632,13 @@
         <v>236</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>20</v>
@@ -4660,13 +4663,13 @@
         <v>20</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>20</v>
@@ -4713,10 +4716,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4742,16 +4745,16 @@
         <v>155</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -4800,7 +4803,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4815,13 +4818,13 @@
         <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>20</v>
@@ -4829,10 +4832,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4858,16 +4861,16 @@
         <v>155</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>20</v>
@@ -4916,7 +4919,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4934,7 +4937,7 @@
         <v>20</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>20</v>
@@ -4945,10 +4948,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4956,7 +4959,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>78</v>
@@ -4971,19 +4974,19 @@
         <v>20</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -5032,7 +5035,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -5041,19 +5044,19 @@
         <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>20</v>
@@ -5061,10 +5064,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5173,10 +5176,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5205,7 +5208,7 @@
         <v>161</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5285,10 +5288,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5314,10 +5317,10 @@
         <v>106</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5347,10 +5350,10 @@
         <v>171</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>20</v>
@@ -5368,7 +5371,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -5377,19 +5380,19 @@
         <v>86</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>20</v>
@@ -5397,10 +5400,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5408,7 +5411,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>86</v>
@@ -5426,16 +5429,16 @@
         <v>155</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>20</v>
@@ -5484,7 +5487,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -5499,10 +5502,10 @@
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>207</v>
@@ -5513,10 +5516,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5542,16 +5545,16 @@
         <v>106</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -5579,10 +5582,10 @@
         <v>171</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>20</v>
@@ -5600,7 +5603,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5615,13 +5618,13 @@
         <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>20</v>
@@ -5629,10 +5632,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5655,16 +5658,16 @@
         <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5714,7 +5717,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5743,10 +5746,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5772,10 +5775,10 @@
         <v>209</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5826,7 +5829,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5844,7 +5847,7 @@
         <v>130</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>215</v>
@@ -5855,10 +5858,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5866,7 +5869,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>86</v>
@@ -5881,19 +5884,19 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -5942,7 +5945,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5954,16 +5957,16 @@
         <v>186</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>20</v>
@@ -5971,10 +5974,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6083,10 +6086,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6115,7 +6118,7 @@
         <v>134</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>136</v>
@@ -6197,13 +6200,13 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>20</v>
@@ -6225,13 +6228,13 @@
         <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6311,13 +6314,13 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>20</v>
@@ -6339,13 +6342,13 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6425,13 +6428,13 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D37" t="s" s="2">
         <v>20</v>
@@ -6453,13 +6456,13 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6539,13 +6542,13 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>20</v>
@@ -6567,13 +6570,13 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6653,16 +6656,16 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D39" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6681,13 +6684,13 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6767,13 +6770,13 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>20</v>
@@ -6795,13 +6798,13 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6881,13 +6884,13 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>20</v>
@@ -6909,13 +6912,13 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6995,16 +6998,16 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D42" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7023,13 +7026,13 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7109,10 +7112,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7138,16 +7141,16 @@
         <v>106</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>20</v>
@@ -7160,7 +7163,7 @@
         <v>20</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>20</v>
@@ -7175,10 +7178,10 @@
         <v>171</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>20</v>
@@ -7196,7 +7199,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -7211,13 +7214,13 @@
         <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>20</v>
@@ -7225,10 +7228,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7254,13 +7257,13 @@
         <v>106</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7274,7 +7277,7 @@
         <v>20</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>20</v>
@@ -7289,10 +7292,10 @@
         <v>171</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>20</v>
@@ -7310,7 +7313,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -7325,10 +7328,10 @@
         <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>20</v>
@@ -7339,10 +7342,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7350,7 +7353,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>86</v>
@@ -7368,16 +7371,16 @@
         <v>155</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>20</v>
@@ -7390,7 +7393,7 @@
         <v>20</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>20</v>
@@ -7426,7 +7429,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7441,10 +7444,10 @@
         <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>20</v>
@@ -7455,14 +7458,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7484,10 +7487,10 @@
         <v>155</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7502,7 +7505,7 @@
         <v>20</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>20</v>
@@ -7538,7 +7541,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7553,13 +7556,13 @@
         <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>20</v>
@@ -7567,14 +7570,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7596,10 +7599,10 @@
         <v>155</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7614,7 +7617,7 @@
         <v>20</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>20</v>
@@ -7650,7 +7653,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7665,13 +7668,13 @@
         <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>20</v>
@@ -7679,14 +7682,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7708,13 +7711,13 @@
         <v>155</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7728,7 +7731,7 @@
         <v>20</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>20</v>
@@ -7764,7 +7767,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7779,10 +7782,10 @@
         <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>20</v>
@@ -7793,14 +7796,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7822,10 +7825,10 @@
         <v>155</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7876,7 +7879,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7891,13 +7894,13 @@
         <v>98</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>20</v>
@@ -7905,14 +7908,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7934,10 +7937,10 @@
         <v>155</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7952,7 +7955,7 @@
         <v>20</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>20</v>
@@ -7988,7 +7991,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -8003,13 +8006,13 @@
         <v>98</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>20</v>
@@ -8017,10 +8020,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8046,7 +8049,7 @@
         <v>155</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>157</v>
@@ -8129,10 +8132,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8239,13 +8242,13 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="B53" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="B53" t="s" s="2">
-        <v>436</v>
-      </c>
       <c r="C53" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>20</v>
@@ -8267,13 +8270,13 @@
         <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8353,10 +8356,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8465,10 +8468,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8494,10 +8497,10 @@
         <v>133</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8577,10 +8580,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8606,13 +8609,13 @@
         <v>100</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8620,7 +8623,7 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>20</v>
@@ -8662,7 +8665,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>86</v>
@@ -8691,10 +8694,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8720,13 +8723,13 @@
         <v>177</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8776,7 +8779,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8805,10 +8808,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8917,10 +8920,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8946,13 +8949,13 @@
         <v>133</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9031,10 +9034,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9057,19 +9060,19 @@
         <v>20</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>20</v>
@@ -9106,7 +9109,7 @@
         <v>20</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" t="s" s="2">
@@ -9116,7 +9119,7 @@
         <v>164</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -9131,10 +9134,10 @@
         <v>98</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>20</v>
@@ -9145,13 +9148,13 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>20</v>
@@ -9173,19 +9176,19 @@
         <v>20</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>20</v>
@@ -9213,10 +9216,10 @@
         <v>171</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>20</v>
@@ -9234,7 +9237,7 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -9249,10 +9252,10 @@
         <v>98</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>20</v>
@@ -9263,10 +9266,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9375,10 +9378,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9407,10 +9410,10 @@
         <v>161</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9489,10 +9492,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9518,16 +9521,16 @@
         <v>100</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>20</v>
@@ -9537,7 +9540,7 @@
         <v>20</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>20</v>
@@ -9576,7 +9579,7 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9591,10 +9594,10 @@
         <v>98</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>20</v>
@@ -9605,10 +9608,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9634,13 +9637,13 @@
         <v>155</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9690,7 +9693,7 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -9705,10 +9708,10 @@
         <v>98</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>20</v>
@@ -9719,10 +9722,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9748,14 +9751,14 @@
         <v>106</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>20</v>
@@ -9804,7 +9807,7 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -9819,10 +9822,10 @@
         <v>98</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>20</v>
@@ -9833,10 +9836,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9862,14 +9865,14 @@
         <v>155</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>20</v>
@@ -9918,7 +9921,7 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -9933,10 +9936,10 @@
         <v>98</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>20</v>
@@ -9947,10 +9950,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9976,16 +9979,16 @@
         <v>226</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>20</v>
@@ -10034,7 +10037,7 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -10049,10 +10052,10 @@
         <v>98</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>20</v>
@@ -10063,13 +10066,13 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>20</v>
@@ -10091,19 +10094,19 @@
         <v>20</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>20</v>
@@ -10131,10 +10134,10 @@
         <v>171</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>20</v>
@@ -10152,7 +10155,7 @@
         <v>20</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
@@ -10167,10 +10170,10 @@
         <v>98</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>20</v>
@@ -10181,10 +10184,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10293,10 +10296,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10325,10 +10328,10 @@
         <v>161</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10407,10 +10410,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10436,16 +10439,16 @@
         <v>100</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>20</v>
@@ -10455,7 +10458,7 @@
         <v>20</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>20</v>
@@ -10494,7 +10497,7 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
@@ -10509,10 +10512,10 @@
         <v>98</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>20</v>
@@ -10523,10 +10526,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10552,13 +10555,13 @@
         <v>155</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10608,7 +10611,7 @@
         <v>20</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
@@ -10623,10 +10626,10 @@
         <v>98</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>20</v>
@@ -10637,10 +10640,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10666,14 +10669,14 @@
         <v>106</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>20</v>
@@ -10722,7 +10725,7 @@
         <v>20</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
@@ -10737,10 +10740,10 @@
         <v>98</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>20</v>
@@ -10751,10 +10754,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10780,14 +10783,14 @@
         <v>155</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>20</v>
@@ -10836,7 +10839,7 @@
         <v>20</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
@@ -10851,10 +10854,10 @@
         <v>98</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>20</v>
@@ -10865,10 +10868,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10894,16 +10897,16 @@
         <v>226</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>20</v>
@@ -10952,7 +10955,7 @@
         <v>20</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
@@ -10967,10 +10970,10 @@
         <v>98</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>20</v>
@@ -10981,13 +10984,13 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D77" t="s" s="2">
         <v>20</v>
@@ -11009,19 +11012,19 @@
         <v>20</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>20</v>
@@ -11049,10 +11052,10 @@
         <v>171</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>20</v>
@@ -11070,7 +11073,7 @@
         <v>20</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
@@ -11085,10 +11088,10 @@
         <v>98</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>20</v>
@@ -11099,10 +11102,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11211,10 +11214,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11243,10 +11246,10 @@
         <v>161</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11325,10 +11328,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11354,16 +11357,16 @@
         <v>100</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>20</v>
@@ -11373,7 +11376,7 @@
         <v>20</v>
       </c>
       <c r="S80" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>20</v>
@@ -11412,7 +11415,7 @@
         <v>20</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
@@ -11427,10 +11430,10 @@
         <v>98</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>20</v>
@@ -11441,10 +11444,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11470,13 +11473,13 @@
         <v>155</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11526,7 +11529,7 @@
         <v>20</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
@@ -11541,10 +11544,10 @@
         <v>98</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>20</v>
@@ -11555,10 +11558,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11584,14 +11587,14 @@
         <v>106</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>20</v>
@@ -11640,7 +11643,7 @@
         <v>20</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
@@ -11655,10 +11658,10 @@
         <v>98</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>20</v>
@@ -11669,10 +11672,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11698,14 +11701,14 @@
         <v>155</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>20</v>
@@ -11754,7 +11757,7 @@
         <v>20</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
@@ -11769,10 +11772,10 @@
         <v>98</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>20</v>
@@ -11783,10 +11786,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11812,16 +11815,16 @@
         <v>226</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>20</v>
@@ -11870,7 +11873,7 @@
         <v>20</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
@@ -11885,10 +11888,10 @@
         <v>98</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>20</v>
@@ -11899,10 +11902,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11928,16 +11931,16 @@
         <v>155</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>20</v>
@@ -11986,7 +11989,7 @@
         <v>20</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
@@ -12001,10 +12004,10 @@
         <v>98</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>20</v>
@@ -12015,10 +12018,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12044,10 +12047,10 @@
         <v>155</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12071,7 +12074,7 @@
         <v>20</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="X86" t="s" s="2">
         <v>20</v>
@@ -12098,7 +12101,7 @@
         <v>20</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>77</v>
@@ -12127,10 +12130,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12156,13 +12159,13 @@
         <v>155</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12212,7 +12215,7 @@
         <v>20</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
@@ -12227,13 +12230,13 @@
         <v>98</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>20</v>
@@ -12241,10 +12244,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12270,14 +12273,14 @@
         <v>209</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>20</v>
@@ -12290,7 +12293,7 @@
         <v>20</v>
       </c>
       <c r="T88" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="U88" t="s" s="2">
         <v>20</v>
@@ -12326,7 +12329,7 @@
         <v>20</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>77</v>
@@ -12341,10 +12344,10 @@
         <v>98</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>215</v>
@@ -12355,10 +12358,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12384,14 +12387,14 @@
         <v>217</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>20</v>
@@ -12440,7 +12443,7 @@
         <v>20</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>77</v>
@@ -12458,7 +12461,7 @@
         <v>231</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>159</v>
@@ -12469,10 +12472,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12495,19 +12498,19 @@
         <v>20</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>20</v>
@@ -12556,7 +12559,7 @@
         <v>20</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>77</v>
@@ -12574,7 +12577,7 @@
         <v>20</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>20</v>
@@ -12585,10 +12588,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12697,10 +12700,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12729,10 +12732,10 @@
         <v>161</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -12811,10 +12814,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12840,16 +12843,16 @@
         <v>133</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>20</v>
@@ -12898,7 +12901,7 @@
         <v>20</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>77</v>
@@ -12927,10 +12930,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12956,16 +12959,16 @@
         <v>177</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>20</v>
@@ -12993,10 +12996,10 @@
         <v>182</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>20</v>
@@ -13014,7 +13017,7 @@
         <v>20</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>77</v>
@@ -13043,10 +13046,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13069,17 +13072,17 @@
         <v>20</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>20</v>
@@ -13128,7 +13131,7 @@
         <v>20</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>77</v>
@@ -13143,10 +13146,10 @@
         <v>98</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>20</v>
@@ -13157,10 +13160,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13183,17 +13186,17 @@
         <v>20</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>20</v>
@@ -13242,7 +13245,7 @@
         <v>20</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>77</v>
@@ -13257,10 +13260,10 @@
         <v>98</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>20</v>
@@ -13271,10 +13274,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13297,19 +13300,19 @@
         <v>20</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>20</v>
@@ -13358,7 +13361,7 @@
         <v>20</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>77</v>
@@ -13373,13 +13376,13 @@
         <v>98</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>20</v>
@@ -13387,10 +13390,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13413,17 +13416,17 @@
         <v>20</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>20</v>
@@ -13472,7 +13475,7 @@
         <v>20</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>77</v>

--- a/docs/StructureDefinition-Organization-twltc.xlsx
+++ b/docs/StructureDefinition-Organization-twltc.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T00:37:08+08:00</t>
+    <t>2024-10-23T02:33:36+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization-twltc.xlsx
+++ b/docs/StructureDefinition-Organization-twltc.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T02:33:36+08:00</t>
+    <t>2025-07-28T13:16:22+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2267,17 +2267,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="91.24609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="68.390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="79.33203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="59.2734375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.28515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="92.765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="82.42578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2286,26 +2286,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="39.97265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="77.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.17578125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.80859375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="69.65625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="55.58203125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="30.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="107.3984375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="218.1953125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="92.15234375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="89.40625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="189.36328125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="29.45703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-Organization-twltc.xlsx
+++ b/docs/StructureDefinition-Organization-twltc.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:16:22+08:00</t>
+    <t>2025-07-28T13:45:25+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization-twltc.xlsx
+++ b/docs/StructureDefinition-Organization-twltc.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:45:25+08:00</t>
+    <t>2025-07-28T14:53:50+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization-twltc.xlsx
+++ b/docs/StructureDefinition-Organization-twltc.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,19 +60,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T14:53:50+08:00</t>
+    <t>2025-08-20T12:47:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>MI-TW</t>
+    <t>經濟部產業發展署</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>MI-TW (https://mitw.dicom.org.tw/)</t>
+    <t>經濟部產業發展署 (https://www.ida.gov.tw/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -2267,17 +2267,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="79.33203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="59.2734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.28515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="78.2265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="58.6328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="82.42578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.53125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2286,26 +2286,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="34.80859375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="69.65625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="55.58203125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="30.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.26953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="66.5390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.44921875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="92.15234375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="89.40625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="189.36328125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="92.07421875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="187.0625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-Organization-twltc.xlsx
+++ b/docs/StructureDefinition-Organization-twltc.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T12:47:30+08:00</t>
+    <t>2025-08-23T17:17:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization-twltc.xlsx
+++ b/docs/StructureDefinition-Organization-twltc.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-23T17:17:30+08:00</t>
+    <t>2025-09-09T02:59:45+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization-twltc.xlsx
+++ b/docs/StructureDefinition-Organization-twltc.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T02:59:45+08:00</t>
+    <t>2025-09-09T04:22:03+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization-twltc.xlsx
+++ b/docs/StructureDefinition-Organization-twltc.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T04:22:03+08:00</t>
+    <t>2025-09-15T15:24:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization-twltc.xlsx
+++ b/docs/StructureDefinition-Organization-twltc.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T15:24:30+08:00</t>
+    <t>2025-09-26T02:27:53+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization-twltc.xlsx
+++ b/docs/StructureDefinition-Organization-twltc.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:27:53+08:00</t>
+    <t>2025-09-26T02:46:56+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization-twltc.xlsx
+++ b/docs/StructureDefinition-Organization-twltc.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:46:56+08:00</t>
+    <t>2025-09-26T16:12:42+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
